--- a/Excel_File/Speaker_List.xlsx
+++ b/Excel_File/Speaker_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nizam\eclipse-workspace\OfficeWork\Excel_File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B87732-3E3C-4B61-80D8-D77BDD421176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{298F4B37-0D08-4178-80D1-0790A3A8E6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -495,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -505,7 +506,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -866,11 +866,11 @@
       <c r="D2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="D3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
       <c r="D7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>95</v>
       </c>
       <c r="F7" s="2"/>
@@ -1007,7 +1007,7 @@
       <c r="D14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       <c r="D19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       <c r="D34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       <c r="D37" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       <c r="D44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" t="s">
         <v>113</v>
       </c>
     </row>
